--- a/First_Match/1.LP1-DLC3 Stat 18.8.18.xlsx
+++ b/First_Match/1.LP1-DLC3 Stat 18.8.18.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Individual" sheetId="1" state="visible" r:id="rId2"/>
@@ -166,11 +166,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -188,64 +189,11 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -253,68 +201,35 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -329,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -337,23 +252,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -377,25 +277,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -404,11 +287,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -420,124 +303,43 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -548,8 +350,8 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -559,11 +361,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="20.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="11" style="1" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="1" width="14.43"/>
   </cols>
@@ -1099,7 +901,7 @@
       <c r="F17" s="5" t="n">
         <v>0.112597418447244</v>
       </c>
-      <c r="G17" s="6" t="n">
+      <c r="G17" s="5" t="n">
         <v>0.909729989375998</v>
       </c>
       <c r="H17" s="5" t="n">
@@ -2330,14 +2132,14 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.91"/>
@@ -2345,130 +2147,130 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="31.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="31.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.23"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0.36374254006472</v>
       </c>
-      <c r="C2" s="11" t="n">
+      <c r="C2" s="10" t="n">
         <v>0.0604250295159386</v>
       </c>
-      <c r="D2" s="11" t="n">
+      <c r="D2" s="10" t="n">
         <v>0.629</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0.717647058823529</v>
-      </c>
-      <c r="F2" s="11" t="n">
+        <v>1.43529411764706</v>
+      </c>
+      <c r="F2" s="10" t="n">
         <v>0.6</v>
       </c>
-      <c r="G2" s="11" t="n">
+      <c r="G2" s="10" t="n">
         <v>0.976470588235294</v>
       </c>
-      <c r="H2" s="11" t="n">
+      <c r="H2" s="10" t="n">
         <v>0.679</v>
       </c>
-      <c r="I2" s="11" t="n">
+      <c r="I2" s="10" t="n">
         <v>1.43</v>
       </c>
-      <c r="J2" s="12" t="n">
+      <c r="J2" s="11" t="n">
         <v>264</v>
       </c>
-      <c r="K2" s="13" t="n">
+      <c r="K2" s="12" t="n">
         <v>0.8</v>
       </c>
-      <c r="L2" s="13" t="n">
+      <c r="L2" s="12" t="n">
         <v>0.47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="B3" s="10" t="n">
         <v>0.297017797017797</v>
       </c>
-      <c r="C3" s="11" t="n">
+      <c r="C3" s="10" t="n">
         <v>0.0253006253006253</v>
       </c>
-      <c r="D3" s="11" t="n">
+      <c r="D3" s="10" t="n">
         <v>0.836</v>
       </c>
-      <c r="E3" s="11" t="n">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="F3" s="11" t="n">
+      <c r="E3" s="10" t="n">
+        <v>1.14285714285714</v>
+      </c>
+      <c r="F3" s="10" t="n">
         <v>0.424107142857143</v>
       </c>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="10" t="n">
         <v>0.71875</v>
       </c>
-      <c r="H3" s="11" t="n">
+      <c r="H3" s="10" t="n">
         <v>0.851</v>
       </c>
-      <c r="I3" s="11" t="n">
+      <c r="I3" s="10" t="n">
         <v>1.62</v>
       </c>
-      <c r="J3" s="12" t="n">
+      <c r="J3" s="11" t="n">
         <v>502</v>
       </c>
-      <c r="K3" s="13" t="n">
+      <c r="K3" s="12" t="n">
         <v>0.87</v>
       </c>
-      <c r="L3" s="13" t="n">
+      <c r="L3" s="12" t="n">
         <v>0.45</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
